--- a/MEDIA/_ 1102   _301_會計科目餘額明細.xlsx
+++ b/MEDIA/_ 1102   _301_會計科目餘額明細.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,7 +356,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>森邦(股)會計科目餘額明細(_ 1102   _301_2020-10-13~2020-10-13)</t>
+          <t>森邦(股)會計科目餘額明細(_ 1102   _301_2020-10-01~2020-10-05)</t>
         </is>
       </c>
     </row>
@@ -419,7 +419,7 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>35394338</v>
+        <v>38326238</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -427,7 +427,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201001</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -437,38 +437,38 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>樹林日新                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>頂-虎尾林森-鍾葦蓁暫收6萬+保證金5萬          </t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>27840</v>
+        <v>110000</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>35422178</v>
+        <v>38436238</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>109528</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1000738</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201001</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -478,38 +478,38 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>高雄苓雅                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>自動扣繳-109/09月-電費               </t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>-75859</v>
       </c>
       <c r="G5" t="n">
-        <v>35428178</v>
+        <v>38360379</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>109986</t>
+          <t>109666</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1000708</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201001</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -519,38 +519,38 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>堤諾長庚                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>自動扣繳-109/09月-電費               </t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>30147</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-105133</v>
       </c>
       <c r="G6" t="n">
-        <v>35458325</v>
+        <v>38255246</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>109666</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>4000024</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201001</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -560,38 +560,38 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>蘇澳中山                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>自動扣繳-109/09月-電費               </t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>20928</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>-81991</v>
       </c>
       <c r="G7" t="n">
-        <v>35479253</v>
+        <v>38173255</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>109666</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1000406</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201001</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>八德中正	                                   </t>
+          <t>基隆新豐	                                   </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -610,29 +610,29 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>29238</v>
+        <v>62817</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>35508491</v>
+        <v>38236072</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>109518</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1000830</t>
+          <t>1000841</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201001</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>三重仁義                                    </t>
+          <t>北市愛國                                    </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -651,29 +651,29 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>28033</v>
+        <v>23842</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>35536524</v>
+        <v>38259914</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>109518</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1000405</t>
+          <t>1000433</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201001</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>北市濟南	                                   </t>
+          <t>三重光復                                    </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -692,29 +692,29 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29406</v>
+        <v>28199</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>35565930</v>
+        <v>38288113</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>109518</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1000816</t>
+          <t>1000781</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201001</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>鹽行仁愛	                                   </t>
+          <t>花壇中正                                    </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -733,29 +733,29 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>20500</v>
+        <v>14426</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>35586430</v>
+        <v>38302539</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>109503</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1000833</t>
+          <t>1000382</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201001</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>崙背建國                                    </t>
+          <t>員林建國                                    </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -774,29 +774,29 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>40034</v>
+        <v>13025</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>35626464</v>
+        <v>38315564</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>109503</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1000790</t>
+          <t>1000648</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201001</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -806,7 +806,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中壢中原	                                   </t>
+          <t>北市文德                                    </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -815,29 +815,29 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>92002</v>
+        <v>22162</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>35718466</v>
+        <v>38337726</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>109503</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1000917</t>
+          <t>1000355</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201001</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -847,7 +847,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>新店耕莘                                    </t>
+          <t>堤諾台南崇學                                  </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -856,29 +856,29 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>30000</v>
+        <v>34812</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>35748466</v>
+        <v>38372538</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>109503</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1000603</t>
+          <t>4000018</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201001</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>南崁奉化                                    </t>
+          <t>北市五分	                                   </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -897,29 +897,29 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>11208</v>
+        <v>42735</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>35759674</v>
+        <v>38415273</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>109534</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1000822</t>
+          <t>1000905</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201001</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -929,7 +929,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>斗六慶生	                                   </t>
+          <t>樹林日新                                    </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -938,29 +938,29 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>12613</v>
+        <v>38000</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>35772287</v>
+        <v>38453273</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>109534</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1000912</t>
+          <t>1000738</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201001</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -979,17 +979,17 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>3195</v>
+        <v>73747</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>35775482</v>
+        <v>38527020</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>109534</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1001,7 +1001,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201001</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中壢九和                                    </t>
+          <t>北市文德                                    </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1020,29 +1020,29 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>29985</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>-22162</v>
       </c>
       <c r="G18" t="n">
-        <v>35805467</v>
+        <v>38504858</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>109585</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1000742</t>
+          <t>1000355</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201002</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中壢環東中山                                  </t>
+          <t>沙鹿北勢東	                                  </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1061,29 +1061,29 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6005</v>
+        <v>22006</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>35811472</v>
+        <v>38526864</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>109609</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1000817</t>
+          <t>1000835</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201002</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>東勢中山                                    </t>
+          <t>神岡豐洲	                                   </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1102,29 +1102,29 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>12117</v>
+        <v>31235</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>35823589</v>
+        <v>38558099</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>109534</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1000290</t>
+          <t>1000922</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201002</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1134,7 +1134,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>東勢中山                                    </t>
+          <t>南崁奉化                                    </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1143,29 +1143,29 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>12860</v>
+        <v>15818</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>35836449</v>
+        <v>38573917</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>109534</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1000290</t>
+          <t>1000822</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201002</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>沙鹿北勢東	                                  </t>
+          <t>中壢環東中山                                  </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1184,29 +1184,29 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>15583</v>
+        <v>10903</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>35852032</v>
+        <v>38584820</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>109534</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1000835</t>
+          <t>1000817</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201002</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>民雄文化                                    </t>
+          <t>龍井竹坑                                    </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1225,29 +1225,29 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>35000</v>
+        <v>20474</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>35887032</v>
+        <v>38605294</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>109534</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1000854</t>
+          <t>1000515</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201002</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>花蓮中山                                    </t>
+          <t>梧棲中興	                                   </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1266,29 +1266,29 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>18234</v>
+        <v>30679</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>35905266</v>
+        <v>38635973</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>109534</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1000882</t>
+          <t>1000898</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201002</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>新竹鐵道                                    </t>
+          <t>三重集美                                    </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1307,29 +1307,29 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>11720</v>
+        <v>65739</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>35916986</v>
+        <v>38701712</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>109534</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1000525</t>
+          <t>1000151</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201002</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>金門金城                                    </t>
+          <t>桃園成功	                                   </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1348,29 +1348,29 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>53380</v>
+        <v>41000</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>35970366</v>
+        <v>38742712</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>109534</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>1000191</t>
+          <t>1000868</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201002</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>虎尾復興                                    </t>
+          <t>平鎮莎奇拉雅                                  </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1389,29 +1389,29 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>36206</v>
+        <v>6000</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>36006572</v>
+        <v>38748712</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>109534</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>1000594</t>
+          <t>1000658</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201002</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>永和竹林                                    </t>
+          <t>竹北文興                                    </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1430,29 +1430,29 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>20086</v>
+        <v>11130</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>36026658</v>
+        <v>38759842</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>109534</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>1000573</t>
+          <t>1000903</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201002</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>員林北門	                                   </t>
+          <t>汐止工建	                                   </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1471,29 +1471,29 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>25109</v>
+        <v>11538</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>36051767</v>
+        <v>38771380</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>109534</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>1000897</t>
+          <t>1000777</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201003</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>桃園中正長春	                                 </t>
+          <t>內湖江南                                    </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1512,29 +1512,29 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>25853</v>
+        <v>47544</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>36077620</v>
+        <v>38818924</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>109609</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>1000925</t>
+          <t>1000146</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201003</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1544,38 +1544,38 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>竹北民權	                                   </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>暫收-周和泰 代尋2萬                   </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>20000</v>
+        <v>21114</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>36097620</v>
+        <v>38840038</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>109982</t>
+          <t>109609</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000946</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201003</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1585,38 +1585,38 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>大溪仁中	                                   </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>10906台北展NO.125-蘇炳文-大里內新 3萬    </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>30000</v>
+        <v>24913</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>36127620</v>
+        <v>38864951</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>109982</t>
+          <t>109609</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000945</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201003</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1626,38 +1626,38 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>台中精科	                                   </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>暫收-大甲日南店 張雅惠 工程款$261480       </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>261480</v>
+        <v>21064</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>36389100</v>
+        <v>38886015</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>109982</t>
+          <t>109609</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000890</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201003</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1667,38 +1667,38 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>高雄六合	                                   </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>10906台北展NO.117-蕭惠文-北市光復 工程款   </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>249740</v>
+        <v>54383</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>36638840</v>
+        <v>38940398</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>109995</t>
+          <t>109609</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000849</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201003</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1708,38 +1708,38 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>竹北遠百勝利                                  </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>存現                            </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1499315</v>
+        <v>51943</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>38138155</v>
+        <v>38992341</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>109982</t>
+          <t>109609</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000911</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201003</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1749,7 +1749,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>員林建國                                    </t>
+          <t>中和環球	                                   </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1758,29 +1758,29 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>15124</v>
+        <v>40000</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>38153279</v>
+        <v>39032341</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>109986</t>
+          <t>109609</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>1000648</t>
+          <t>1000846</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201003</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>楊梅青山                                    </t>
+          <t>中和環球	                                   </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1799,29 +1799,29 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>19148</v>
+        <v>12281</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>38172427</v>
+        <v>39044622</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>109986</t>
+          <t>109609</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>1000887</t>
+          <t>1000846</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201004</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>堤諾林口店                                   </t>
+          <t>新市中興                                    </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1840,22 +1840,3671 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>13656</v>
+        <v>23474</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>38186083</v>
+        <v>39068096</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>109609</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>4000023</t>
+          <t>1000561</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>20201004</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>土庫新建	                                   </t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>22744</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>39090840</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>109609</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>1000919</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>20201004</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>民雄文化                                    </t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>42825</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>39133665</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>109609</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>1000854</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>20201004</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>土城永寧	                                   </t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>20061</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>39153726</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>109609</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>1000935</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>20201004</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>土城廣興                                    </t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>22264</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>39175990</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>109609</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>1000672</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>20201004</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>竹北台元	                                   </t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>26726</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>39202716</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>109609</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>1000920</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>20201004</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>北市立農	                                   </t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>34394</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>39237110</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>109609</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>1000959</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>20201004</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>新竹台積電P1廠	                               </t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>12238</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>39249348</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>109609</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>1000893</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>20201004</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>台東中華                                    </t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>15158</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>39264506</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>109609</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>1000582</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>20201004</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中和民享	                                   </t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>30410</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>39294916</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>109609</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>1000886</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>20201004</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>北市南港高工                                  </t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>13048</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>39307964</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>109609</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>1000345</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>20201004</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>平鎮廣德                                    </t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>24053</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>39332017</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>109609</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>1000764</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>20201004</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>蘇澳中山                                    </t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>33130</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>39365147</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>109609</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>1000406</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>20201004</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>仁德德安                                    </t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>29444</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>39394591</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>109609</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>1000530</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>20201004</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>北市南京松江	                                 </t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>47884</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>39442475</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>109609</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>1000914</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>20201004</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>新營中正	                                   </t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>20936</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>39463411</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>109609</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>1000834</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>20201004</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>八德銀和                                    </t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>25305</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>39488716</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>109609</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>1000296</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>20201004</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>善化大成                                    </t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>31404</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>39520120</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>109609</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>1000629</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>20201004</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>羅東成功                                    </t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>39090</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>39559210</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>109609</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>1000317</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>台中中工                                    </t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>103807</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>39663017</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>109668</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>1000010</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>台南文南                                    </t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>24333</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>39687350</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>109668</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>1000074</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>桃園信光                                    </t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>40415</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>39727765</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>109668</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>1000908</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>板橋江翠	                                   </t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>42854</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>39770619</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>109668</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>1000795</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>桃園中正長春	                                 </t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>15189</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>39785808</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>109668</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>1000925</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>(結束)新店北新	                               </t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>新店北新結束營業退貨款                   </t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-20</v>
+      </c>
+      <c r="G62" t="n">
+        <v>39785788</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>109589</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>1000851</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>其他                                      </t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>899</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>39786687</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>110609</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>1000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>匯109/10月:輝永實業有限公司租金           </t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-39870</v>
+      </c>
+      <c r="G64" t="n">
+        <v>39746817</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>109088</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>匯109/10月周淑婷-南區辦公處租金-開立扣繳憑單    </t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-6500</v>
+      </c>
+      <c r="G65" t="n">
+        <v>39740317</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>109088</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>匯109/10月杜欣芳-中區辦公室租金-開立扣繳憑單    </t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-8000</v>
+      </c>
+      <c r="G66" t="n">
+        <v>39732317</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>109088</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>支付謝雅蓮-沖9/30#109519            </t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-8000</v>
+      </c>
+      <c r="G67" t="n">
+        <v>39724317</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>109520</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>支付謝雅蓮-沖9/30#109519            </t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-40</v>
+      </c>
+      <c r="G68" t="n">
+        <v>39724277</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>109520</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>支付黃凱祺-沖9/30#109519            </t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-8260</v>
+      </c>
+      <c r="G69" t="n">
+        <v>39716017</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>109520</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>支付顏于菁-沖9/30#109519            </t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-7124</v>
+      </c>
+      <c r="G70" t="n">
+        <v>39708893</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>109520</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>支付王景鴻-沖9/30#109519            </t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-11497</v>
+      </c>
+      <c r="G71" t="n">
+        <v>39697396</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>109520</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>支付邱盈甄-沖9/30#109519            </t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-4000</v>
+      </c>
+      <c r="G72" t="n">
+        <v>39693396</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>109520</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>支付賴允中-沖9/30#109519            </t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-7090</v>
+      </c>
+      <c r="G73" t="n">
+        <v>39686306</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>109520</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>支付黃隆玄-沖9/30#109519            </t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-1798</v>
+      </c>
+      <c r="G74" t="n">
+        <v>39684508</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>109520</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>支付黃隆玄-沖9/30#109519            </t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-2492</v>
+      </c>
+      <c r="G75" t="n">
+        <v>39682016</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>109520</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>支付林名富-沖9/30#109519            </t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-1570</v>
+      </c>
+      <c r="G76" t="n">
+        <v>39680446</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>109520</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>支付彭獻毅-沖9/30#109519            </t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-1240</v>
+      </c>
+      <c r="G77" t="n">
+        <v>39679206</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>109520</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>支付胡毓樺-沖9/30#109519            </t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-735</v>
+      </c>
+      <c r="G78" t="n">
+        <v>39678471</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>109520</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>支付胡毓樺-沖9/30#109519            </t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-520</v>
+      </c>
+      <c r="G79" t="n">
+        <v>39677951</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>109520</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>支付鄭維愉-沖9/30#109519            </t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-1220</v>
+      </c>
+      <c r="G80" t="n">
+        <v>39676731</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>109520</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>支付柏通-沖9/30#109519             </t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-613</v>
+      </c>
+      <c r="G81" t="n">
+        <v>39676118</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>109520</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>商港服務費402專戶支付09-1504劉淑姬費用申請    </t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>-1368</v>
+      </c>
+      <c r="G82" t="n">
+        <v>39674750</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>109520</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>匯新光保全-09-1482林泳榛費用            </t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-22980</v>
+      </c>
+      <c r="G83" t="n">
+        <v>39651770</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>109336</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>沖#91190-新店北新-施香君退保證金5萬        </t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-50000</v>
+      </c>
+      <c r="G84" t="n">
+        <v>39601770</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>109590</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>沖#40734-堤諾台北光復北-林世偉保證金20萬     </t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-139419</v>
+      </c>
+      <c r="G85" t="n">
+        <v>39462351</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>109594</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>扣貨款60581=實退還139419            </t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>39462351</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>109594</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>沖#29122-堤諾內湖家樂福-林滿足-保證金20萬    </t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-168100</v>
+      </c>
+      <c r="G87" t="n">
+        <v>39294251</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>109597</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>扣貨款31900=實退還168100            </t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>39294251</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>109597</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>存現                            </t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>1365547</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>40659798</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>109656</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>銀行自動扣繳沖9/30#109095-109/09月普聯租金</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-177400</v>
+      </c>
+      <c r="G90" t="n">
+        <v>40482398</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>109663</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>存現                            </t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>1282199</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>41764597</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>109656</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>存現                            </t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>883590</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>42648187</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>109656</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>存現                            </t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>503911</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>43152098</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>109656</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>10908高雄展NO.33-黃曉菁 -花蓮中正暫收款+保證金</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>90000</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>43242098</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>109656</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>沖-9月份:應付薪資                    </t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-6352920</v>
+      </c>
+      <c r="G95" t="n">
+        <v>36889178</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>109607</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>轉帳扣繳退休金-07月份                  </t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>-314938</v>
+      </c>
+      <c r="G96" t="n">
+        <v>36574240</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>110806</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>轉帳扣繳退休金（自提）-07月份              </t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>-32070</v>
+      </c>
+      <c r="G97" t="n">
+        <v>36542170</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>110806</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>轉帳扣繳勞保費-08月份                  </t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-429513</v>
+      </c>
+      <c r="G98" t="n">
+        <v>36112657</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>110806</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>台北八德                                    </t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>100000.1102.301               </t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>12900</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>36125557</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>109662</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>1000202</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>台北八德                                    </t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>100000.1102.301               </t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>7700</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>36133257</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>109662</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>1000202</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>竹東仁愛                                    </t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>100000.1102.301               </t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>25471</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>36158728</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>109662</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>1000109</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>北市汀州三總                                  </t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>100000.1102.301               </t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>13000</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>36171728</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>109662</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>1000415</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>新店建國                                    </t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>100000.1102.301               </t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>43815</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>36215543</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>109662</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>1000236</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>宜蘭健康                                    </t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>100000.1102.301               </t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>8243</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>36223786</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>109662</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>1000727</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>新竹延平                                    </t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>100000.1102.301               </t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>12300</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="n">
+        <v>36236086</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>109662</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>1000255</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>新豐新興                                    </t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>100000.1102.301               </t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>22943</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" t="n">
+        <v>36259029</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>109662</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>1000018</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>蘆竹大竹                                    </t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>48000</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" t="n">
+        <v>36307029</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>109609</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>1000593</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>楊梅四維                                    </t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>100000.1102.301               </t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>11055</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="n">
+        <v>36318084</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>109662</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>1000252</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>林口醒吾                                    </t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>100000.1102.301               </t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>30792</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" t="n">
+        <v>36348876</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>109662</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>1000099</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>中和泰和                                    </t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>30000</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G110" t="n">
+        <v>36378876</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>109609</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>1000807</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>金城餐具                                    </t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>29634</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" t="n">
+        <v>36408510</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>109609</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>9000030</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>豐原南陽	                                   </t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>35239</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" t="n">
+        <v>36443749</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>109609</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>1000856</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>後龍中山                                    </t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>36572</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" t="n">
+        <v>36480321</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>109609</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>1000067</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>大里大智	                                   </t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>10693</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" t="n">
+        <v>36491014</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>109609</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>1000943</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>土城永寧	                                   </t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>29252</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" t="n">
+        <v>36520266</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>109609</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>1000935</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>桃園大業	                                   </t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>32944</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="n">
+        <v>36553210</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>109609</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>1000873</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>西螺光復                                    </t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>30000</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" t="n">
+        <v>36583210</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>109609</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>1000282</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>板橋民族                                    </t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>38467</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" t="n">
+        <v>36621677</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>109609</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>1000153</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>東勢東崎                                    </t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>37768</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" t="n">
+        <v>36659445</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>109609</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>1000111</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>新竹橫山	                                   </t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>34000</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
+      <c r="G120" t="n">
+        <v>36693445</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>109609</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>1000844</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>東勢中山                                    </t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>30000</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0</v>
+      </c>
+      <c r="G121" t="n">
+        <v>36723445</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>109609</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>1000290</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>汐止復興                                    </t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>19288</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" t="n">
+        <v>36742733</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>109609</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>1000285</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>堤諾高雄河堤                                  </t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>99280</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0</v>
+      </c>
+      <c r="G123" t="n">
+        <v>36842013</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>109609</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>4000017</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>三重仁義                                    </t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>36625</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G124" t="n">
+        <v>36878638</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>109609</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>1000405</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>桃園廈門                                    </t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>18949</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" t="n">
+        <v>36897587</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>109609</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>1000910</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>苗栗中正                                    </t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>38237</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" t="n">
+        <v>36935824</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>109668</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>1000788</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>高雄富民                                    </t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>30490</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0</v>
+      </c>
+      <c r="G127" t="n">
+        <v>36966314</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>109668</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>1000879</t>
         </is>
       </c>
     </row>
